--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Anxa2-Tlr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Anxa2-Tlr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>98.47161033333333</v>
+        <v>95.24255366666667</v>
       </c>
       <c r="H2">
-        <v>295.414831</v>
+        <v>285.727661</v>
       </c>
       <c r="I2">
-        <v>0.2726813444982129</v>
+        <v>0.2732032672746878</v>
       </c>
       <c r="J2">
-        <v>0.272681344498213</v>
+        <v>0.2732032672746877</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>1.379781</v>
+        <v>1.597802666666666</v>
       </c>
       <c r="N2">
-        <v>4.139343</v>
+        <v>4.793407999999999</v>
       </c>
       <c r="O2">
-        <v>0.0234398703721191</v>
+        <v>0.02304920886321625</v>
       </c>
       <c r="P2">
-        <v>0.0234398703721191</v>
+        <v>0.02304920886321625</v>
       </c>
       <c r="Q2">
-        <v>135.869256977337</v>
+        <v>152.1788062287431</v>
       </c>
       <c r="R2">
-        <v>1222.823312796033</v>
+        <v>1369.609256058688</v>
       </c>
       <c r="S2">
-        <v>0.006391615367933263</v>
+        <v>0.006297119169527371</v>
       </c>
       <c r="T2">
-        <v>0.006391615367933263</v>
+        <v>0.006297119169527371</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>98.47161033333333</v>
+        <v>95.24255366666667</v>
       </c>
       <c r="H3">
-        <v>295.414831</v>
+        <v>285.727661</v>
       </c>
       <c r="I3">
-        <v>0.2726813444982129</v>
+        <v>0.2732032672746878</v>
       </c>
       <c r="J3">
-        <v>0.272681344498213</v>
+        <v>0.2732032672746877</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,22 +623,22 @@
         <v>3.81918</v>
       </c>
       <c r="O3">
-        <v>0.02162688236461434</v>
+        <v>0.0183646118807784</v>
       </c>
       <c r="P3">
-        <v>0.02162688236461434</v>
+        <v>0.0183646118807784</v>
       </c>
       <c r="Q3">
-        <v>125.3602682509533</v>
+        <v>121.2494853708866</v>
       </c>
       <c r="R3">
-        <v>1128.24241425858</v>
+        <v>1091.24536833798</v>
       </c>
       <c r="S3">
-        <v>0.005897247360487728</v>
+        <v>0.005017271968060209</v>
       </c>
       <c r="T3">
-        <v>0.00589724736048773</v>
+        <v>0.005017271968060209</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,51 +661,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>98.47161033333333</v>
+        <v>95.24255366666667</v>
       </c>
       <c r="H4">
-        <v>295.414831</v>
+        <v>285.727661</v>
       </c>
       <c r="I4">
-        <v>0.2726813444982129</v>
+        <v>0.2732032672746878</v>
       </c>
       <c r="J4">
-        <v>0.272681344498213</v>
+        <v>0.2732032672746877</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.8696043333333333</v>
+        <v>66.45050433333334</v>
       </c>
       <c r="N4">
-        <v>2.608813</v>
+        <v>199.351513</v>
       </c>
       <c r="O4">
-        <v>0.01477293342085909</v>
+        <v>0.9585861792560053</v>
       </c>
       <c r="P4">
-        <v>0.01477293342085909</v>
+        <v>0.9585861792560054</v>
       </c>
       <c r="Q4">
-        <v>85.63133905617811</v>
+        <v>6328.915725144567</v>
       </c>
       <c r="R4">
-        <v>770.682051505603</v>
+        <v>56960.2415263011</v>
       </c>
       <c r="S4">
-        <v>0.004028303347382442</v>
+        <v>0.2618888761371002</v>
       </c>
       <c r="T4">
-        <v>0.004028303347382442</v>
+        <v>0.2618888761371002</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>98.47161033333333</v>
+        <v>113.1680936666667</v>
       </c>
       <c r="H5">
-        <v>295.414831</v>
+        <v>339.504281</v>
       </c>
       <c r="I5">
-        <v>0.2726813444982129</v>
+        <v>0.3246226791565123</v>
       </c>
       <c r="J5">
-        <v>0.272681344498213</v>
+        <v>0.3246226791565122</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>55.34225733333333</v>
+        <v>1.597802666666666</v>
       </c>
       <c r="N5">
-        <v>166.026772</v>
+        <v>4.793407999999999</v>
       </c>
       <c r="O5">
-        <v>0.9401603138424075</v>
+        <v>0.02304920886321625</v>
       </c>
       <c r="P5">
-        <v>0.9401603138424074</v>
+        <v>0.02304920886321625</v>
       </c>
       <c r="Q5">
-        <v>5449.641199095058</v>
+        <v>180.8202818421831</v>
       </c>
       <c r="R5">
-        <v>49046.77079185553</v>
+        <v>1627.382536579648</v>
       </c>
       <c r="S5">
-        <v>0.2563641784224095</v>
+        <v>0.007482295933615287</v>
       </c>
       <c r="T5">
-        <v>0.2563641784224095</v>
+        <v>0.007482295933615287</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,40 +791,40 @@
         <v>339.504281</v>
       </c>
       <c r="I6">
-        <v>0.3133779150241075</v>
+        <v>0.3246226791565123</v>
       </c>
       <c r="J6">
-        <v>0.3133779150241076</v>
+        <v>0.3246226791565122</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>1.379781</v>
+        <v>1.27306</v>
       </c>
       <c r="N6">
-        <v>4.139343</v>
+        <v>3.81918</v>
       </c>
       <c r="O6">
-        <v>0.0234398703721191</v>
+        <v>0.0183646118807784</v>
       </c>
       <c r="P6">
-        <v>0.0234398703721191</v>
+        <v>0.0183646118807784</v>
       </c>
       <c r="Q6">
-        <v>156.147185447487</v>
+        <v>144.0697733232867</v>
       </c>
       <c r="R6">
-        <v>1405.324669027383</v>
+        <v>1296.62795990958</v>
       </c>
       <c r="S6">
-        <v>0.007345537705650035</v>
+        <v>0.0059615695104078</v>
       </c>
       <c r="T6">
-        <v>0.007345537705650035</v>
+        <v>0.0059615695104078</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,45 +853,45 @@
         <v>339.504281</v>
       </c>
       <c r="I7">
-        <v>0.3133779150241075</v>
+        <v>0.3246226791565123</v>
       </c>
       <c r="J7">
-        <v>0.3133779150241076</v>
+        <v>0.3246226791565122</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>1.27306</v>
+        <v>66.45050433333334</v>
       </c>
       <c r="N7">
-        <v>3.81918</v>
+        <v>199.351513</v>
       </c>
       <c r="O7">
-        <v>0.02162688236461434</v>
+        <v>0.9585861792560053</v>
       </c>
       <c r="P7">
-        <v>0.02162688236461434</v>
+        <v>0.9585861792560054</v>
       </c>
       <c r="Q7">
-        <v>144.0697733232867</v>
+        <v>7520.076898591907</v>
       </c>
       <c r="R7">
-        <v>1296.62795990958</v>
+        <v>67680.69208732716</v>
       </c>
       <c r="S7">
-        <v>0.006777387303894481</v>
+        <v>0.3111788137124892</v>
       </c>
       <c r="T7">
-        <v>0.006777387303894483</v>
+        <v>0.3111788137124892</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,51 +909,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>113.1680936666667</v>
+        <v>89.83461266666666</v>
       </c>
       <c r="H8">
-        <v>339.504281</v>
+        <v>269.503838</v>
       </c>
       <c r="I8">
-        <v>0.3133779150241075</v>
+        <v>0.2576905883979786</v>
       </c>
       <c r="J8">
-        <v>0.3133779150241076</v>
+        <v>0.2576905883979785</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.8696043333333333</v>
+        <v>1.597802666666666</v>
       </c>
       <c r="N8">
-        <v>2.608813</v>
+        <v>4.793407999999999</v>
       </c>
       <c r="O8">
-        <v>0.01477293342085909</v>
+        <v>0.02304920886321625</v>
       </c>
       <c r="P8">
-        <v>0.01477293342085909</v>
+        <v>0.02304920886321625</v>
       </c>
       <c r="Q8">
-        <v>98.41146464760588</v>
+        <v>143.5379836777671</v>
       </c>
       <c r="R8">
-        <v>885.703181828453</v>
+        <v>1291.841853099904</v>
       </c>
       <c r="S8">
-        <v>0.004629511074218779</v>
+        <v>0.005939564194070098</v>
       </c>
       <c r="T8">
-        <v>0.004629511074218779</v>
+        <v>0.005939564194070097</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>113.1680936666667</v>
+        <v>89.83461266666666</v>
       </c>
       <c r="H9">
-        <v>339.504281</v>
+        <v>269.503838</v>
       </c>
       <c r="I9">
-        <v>0.3133779150241075</v>
+        <v>0.2576905883979786</v>
       </c>
       <c r="J9">
-        <v>0.3133779150241076</v>
+        <v>0.2576905883979785</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>55.34225733333333</v>
+        <v>1.27306</v>
       </c>
       <c r="N9">
-        <v>166.026772</v>
+        <v>3.81918</v>
       </c>
       <c r="O9">
-        <v>0.9401603138424075</v>
+        <v>0.0183646118807784</v>
       </c>
       <c r="P9">
-        <v>0.9401603138424074</v>
+        <v>0.0183646118807784</v>
       </c>
       <c r="Q9">
-        <v>6262.977761623436</v>
+        <v>114.3648520014266</v>
       </c>
       <c r="R9">
-        <v>56366.79985461093</v>
+        <v>1029.28366801284</v>
       </c>
       <c r="S9">
-        <v>0.2946254789403442</v>
+        <v>0.004732387641258294</v>
       </c>
       <c r="T9">
-        <v>0.2946254789403442</v>
+        <v>0.004732387641258294</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,7 +1024,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>91.23572399999999</v>
+        <v>89.83461266666666</v>
       </c>
       <c r="H10">
-        <v>273.707172</v>
+        <v>269.503838</v>
       </c>
       <c r="I10">
-        <v>0.2526441865058685</v>
+        <v>0.2576905883979786</v>
       </c>
       <c r="J10">
-        <v>0.2526441865058685</v>
+        <v>0.2576905883979785</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,33 +1051,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.379781</v>
+        <v>66.45050433333334</v>
       </c>
       <c r="N10">
-        <v>4.139343</v>
+        <v>199.351513</v>
       </c>
       <c r="O10">
-        <v>0.0234398703721191</v>
+        <v>0.9585861792560053</v>
       </c>
       <c r="P10">
-        <v>0.0234398703721191</v>
+        <v>0.9585861792560054</v>
       </c>
       <c r="Q10">
-        <v>125.885318496444</v>
+        <v>5969.555318289655</v>
       </c>
       <c r="R10">
-        <v>1132.967866467996</v>
+        <v>53725.99786460689</v>
       </c>
       <c r="S10">
-        <v>0.005921946981967038</v>
+        <v>0.2470186365626502</v>
       </c>
       <c r="T10">
-        <v>0.005921946981967037</v>
+        <v>0.2470186365626502</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,7 +1086,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>91.23572399999999</v>
+        <v>50.36899566666667</v>
       </c>
       <c r="H11">
-        <v>273.707172</v>
+        <v>151.106987</v>
       </c>
       <c r="I11">
-        <v>0.2526441865058685</v>
+        <v>0.1444834651708214</v>
       </c>
       <c r="J11">
-        <v>0.2526441865058685</v>
+        <v>0.1444834651708214</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1113,33 +1113,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>1.27306</v>
+        <v>1.597802666666666</v>
       </c>
       <c r="N11">
-        <v>3.81918</v>
+        <v>4.793407999999999</v>
       </c>
       <c r="O11">
-        <v>0.02162688236461434</v>
+        <v>0.02304920886321625</v>
       </c>
       <c r="P11">
-        <v>0.02162688236461434</v>
+        <v>0.02304920886321625</v>
       </c>
       <c r="Q11">
-        <v>116.14855079544</v>
+        <v>80.47971559352177</v>
       </c>
       <c r="R11">
-        <v>1045.33695715896</v>
+        <v>724.3174403416959</v>
       </c>
       <c r="S11">
-        <v>0.005463906101666102</v>
+        <v>0.003330229566003494</v>
       </c>
       <c r="T11">
-        <v>0.005463906101666102</v>
+        <v>0.003330229566003493</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,7 +1148,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1157,51 +1157,51 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>91.23572399999999</v>
+        <v>50.36899566666667</v>
       </c>
       <c r="H12">
-        <v>273.707172</v>
+        <v>151.106987</v>
       </c>
       <c r="I12">
-        <v>0.2526441865058685</v>
+        <v>0.1444834651708214</v>
       </c>
       <c r="J12">
-        <v>0.2526441865058685</v>
+        <v>0.1444834651708214</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.8696043333333333</v>
+        <v>1.27306</v>
       </c>
       <c r="N12">
-        <v>2.608813</v>
+        <v>3.81918</v>
       </c>
       <c r="O12">
-        <v>0.01477293342085909</v>
+        <v>0.0183646118807784</v>
       </c>
       <c r="P12">
-        <v>0.01477293342085909</v>
+        <v>0.0183646118807784</v>
       </c>
       <c r="Q12">
-        <v>79.33898094520399</v>
+        <v>64.12275362340667</v>
       </c>
       <c r="R12">
-        <v>714.050828506836</v>
+        <v>577.10478261066</v>
       </c>
       <c r="S12">
-        <v>0.003732295746418302</v>
+        <v>0.0026533827610521</v>
       </c>
       <c r="T12">
-        <v>0.003732295746418302</v>
+        <v>0.0026533827610521</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>91.23572399999999</v>
+        <v>50.36899566666667</v>
       </c>
       <c r="H13">
-        <v>273.707172</v>
+        <v>151.106987</v>
       </c>
       <c r="I13">
-        <v>0.2526441865058685</v>
+        <v>0.1444834651708214</v>
       </c>
       <c r="J13">
-        <v>0.2526441865058685</v>
+        <v>0.1444834651708214</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,276 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>55.34225733333333</v>
+        <v>66.45050433333334</v>
       </c>
       <c r="N13">
-        <v>166.026772</v>
+        <v>199.351513</v>
       </c>
       <c r="O13">
-        <v>0.9401603138424075</v>
+        <v>0.9585861792560053</v>
       </c>
       <c r="P13">
-        <v>0.9401603138424074</v>
+        <v>0.9585861792560054</v>
       </c>
       <c r="Q13">
-        <v>5049.190915600975</v>
+        <v>3347.045164813482</v>
       </c>
       <c r="R13">
-        <v>45442.71824040877</v>
+        <v>30123.40648332133</v>
       </c>
       <c r="S13">
-        <v>0.237526037675817</v>
+        <v>0.1384998528437658</v>
       </c>
       <c r="T13">
-        <v>0.237526037675817</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>58.24795766666667</v>
-      </c>
-      <c r="H14">
-        <v>174.743873</v>
-      </c>
-      <c r="I14">
-        <v>0.1612965539718111</v>
-      </c>
-      <c r="J14">
-        <v>0.1612965539718112</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>1.379781</v>
-      </c>
-      <c r="N14">
-        <v>4.139343</v>
-      </c>
-      <c r="O14">
-        <v>0.0234398703721191</v>
-      </c>
-      <c r="P14">
-        <v>0.0234398703721191</v>
-      </c>
-      <c r="Q14">
-        <v>80.36942527727102</v>
-      </c>
-      <c r="R14">
-        <v>723.3248274954391</v>
-      </c>
-      <c r="S14">
-        <v>0.003780770316568765</v>
-      </c>
-      <c r="T14">
-        <v>0.003780770316568766</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>58.24795766666667</v>
-      </c>
-      <c r="H15">
-        <v>174.743873</v>
-      </c>
-      <c r="I15">
-        <v>0.1612965539718111</v>
-      </c>
-      <c r="J15">
-        <v>0.1612965539718112</v>
-      </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
-      <c r="L15">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M15">
-        <v>1.27306</v>
-      </c>
-      <c r="N15">
-        <v>3.81918</v>
-      </c>
-      <c r="O15">
-        <v>0.02162688236461434</v>
-      </c>
-      <c r="P15">
-        <v>0.02162688236461434</v>
-      </c>
-      <c r="Q15">
-        <v>74.15314498712667</v>
-      </c>
-      <c r="R15">
-        <v>667.37830488414</v>
-      </c>
-      <c r="S15">
-        <v>0.003488341598566027</v>
-      </c>
-      <c r="T15">
-        <v>0.003488341598566028</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>58.24795766666667</v>
-      </c>
-      <c r="H16">
-        <v>174.743873</v>
-      </c>
-      <c r="I16">
-        <v>0.1612965539718111</v>
-      </c>
-      <c r="J16">
-        <v>0.1612965539718112</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M16">
-        <v>0.8696043333333333</v>
-      </c>
-      <c r="N16">
-        <v>2.608813</v>
-      </c>
-      <c r="O16">
-        <v>0.01477293342085909</v>
-      </c>
-      <c r="P16">
-        <v>0.01477293342085909</v>
-      </c>
-      <c r="Q16">
-        <v>50.65267639474989</v>
-      </c>
-      <c r="R16">
-        <v>455.874087552749</v>
-      </c>
-      <c r="S16">
-        <v>0.002382823252839571</v>
-      </c>
-      <c r="T16">
-        <v>0.002382823252839572</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>58.24795766666667</v>
-      </c>
-      <c r="H17">
-        <v>174.743873</v>
-      </c>
-      <c r="I17">
-        <v>0.1612965539718111</v>
-      </c>
-      <c r="J17">
-        <v>0.1612965539718112</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>55.34225733333333</v>
-      </c>
-      <c r="N17">
-        <v>166.026772</v>
-      </c>
-      <c r="O17">
-        <v>0.9401603138424075</v>
-      </c>
-      <c r="P17">
-        <v>0.9401603138424074</v>
-      </c>
-      <c r="Q17">
-        <v>3223.573462329773</v>
-      </c>
-      <c r="R17">
-        <v>29012.16116096796</v>
-      </c>
-      <c r="S17">
-        <v>0.1516446188038368</v>
-      </c>
-      <c r="T17">
-        <v>0.1516446188038368</v>
+        <v>0.1384998528437658</v>
       </c>
     </row>
   </sheetData>
